--- a/Saved_file/EM002/2026_01/work_logs_EM002_2026_01.xlsx
+++ b/Saved_file/EM002/2026_01/work_logs_EM002_2026_01.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-01 09:46:30</t>
+          <t>2026-01-27 10:23:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260101_000</t>
+          <t>SESS_20260127_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>09:46:30</t>
+          <t>10:23:09</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -528,17 +528,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-10 12:33:19</t>
+          <t>2026-01-27 16:57:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.413</t>
+          <t>Face verification failed - Similarity: 0.296</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260110_001</t>
+          <t>SESS_20260127_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12:33:19</t>
+          <t>16:57:34</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -578,17 +578,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-21 16:37:19</t>
+          <t>2026-01-27 08:39:23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.827</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260121_002</t>
+          <t>SESS_20260127_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -611,34 +611,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:37:19</t>
+          <t>08:39:23</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-14 20:57:28</t>
+          <t>2026-01-25 18:00:48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.232</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260114_003</t>
+          <t>SESS_20260125_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,34 +661,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20:57:28</t>
+          <t>18:00:48</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-24 15:09:36</t>
+          <t>2026-01-11 13:47:48</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.927</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260124_004</t>
+          <t>SESS_20260111_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,24 +711,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15:09:36</t>
+          <t>13:47:48</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-15 18:51:26</t>
+          <t>2026-01-11 10:00:05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260115_005</t>
+          <t>SESS_20260111_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -761,12 +761,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18:51:26</t>
+          <t>10:00:05</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -778,17 +778,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-25 11:31:00</t>
+          <t>2026-01-07 10:11:02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.288</t>
+          <t>Mouse anomaly detected - Score: 0.938</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260125_006</t>
+          <t>SESS_20260107_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -811,29 +811,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11:31:00</t>
+          <t>10:11:02</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-04 20:13:23</t>
+          <t>2026-01-18 14:43:44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260104_007</t>
+          <t>SESS_20260118_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20:13:23</t>
+          <t>14:43:44</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -878,17 +878,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-14 08:42:05</t>
+          <t>2026-01-07 19:10:39</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.847</t>
+          <t>Face verification failed - Similarity: 0.339</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260114_008</t>
+          <t>SESS_20260107_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -911,29 +911,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>08:42:05</t>
+          <t>19:10:39</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-26 18:26:41</t>
+          <t>2026-01-09 16:12:16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260126_009</t>
+          <t>SESS_20260109_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -961,12 +961,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>18:26:41</t>
+          <t>16:12:16</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -978,17 +978,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-04 16:17:32</t>
+          <t>2026-01-14 09:08:27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.806</t>
+          <t>Mouse anomaly detected - Score: 0.701</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260104_010</t>
+          <t>SESS_20260114_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:17:32</t>
+          <t>09:08:27</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1028,12 +1028,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-05 11:53:12</t>
+          <t>2026-01-05 16:06:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11:53:12</t>
+          <t>16:06:11</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1078,17 +1078,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-09 09:54:32</t>
+          <t>2026-01-23 12:51:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.879</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20260109_012</t>
+          <t>SESS_20260123_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1111,34 +1111,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>09:54:32</t>
+          <t>12:51:30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-04 19:19:40</t>
+          <t>2026-01-22 11:50:38</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.741</t>
+          <t>Mouse anomaly detected - Score: 0.889</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SESS_20260104_013</t>
+          <t>SESS_20260122_013</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>19:19:40</t>
+          <t>11:50:38</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1178,17 +1178,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-13 13:55:24</t>
+          <t>2026-01-25 17:20:19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.839</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SESS_20260113_014</t>
+          <t>SESS_20260125_014</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1211,34 +1211,34 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>13:55:24</t>
+          <t>17:20:19</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-09 09:15:18</t>
+          <t>2026-01-18 20:34:04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.427</t>
+          <t>Mouse anomaly detected - Score: 0.737</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SESS_20260109_015</t>
+          <t>SESS_20260118_015</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1261,34 +1261,34 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>09:15:18</t>
+          <t>20:34:04</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-03 14:29:51</t>
+          <t>2026-01-21 09:38:20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.499</t>
+          <t>Face verification failed - Similarity: 0.305</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SESS_20260103_016</t>
+          <t>SESS_20260121_016</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14:29:51</t>
+          <t>09:38:20</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1328,17 +1328,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-03 14:41:13</t>
+          <t>2026-01-13 14:35:59</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.443</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SESS_20260103_017</t>
+          <t>SESS_20260113_017</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1361,34 +1361,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>14:41:13</t>
+          <t>14:35:59</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-25 14:45:03</t>
+          <t>2026-01-22 11:45:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.248</t>
+          <t>Mouse anomaly detected - Score: 0.936</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SESS_20260125_018</t>
+          <t>SESS_20260122_018</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1411,24 +1411,24 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14:45:03</t>
+          <t>11:45:30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-19 19:55:15</t>
+          <t>2026-01-25 14:23:20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.469</t>
+          <t>Face verification failed - Similarity: 0.274</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SESS_20260119_019</t>
+          <t>SESS_20260125_019</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19:55:15</t>
+          <t>14:23:20</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1478,17 +1478,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-04 20:53:16</t>
+          <t>2026-01-23 10:15:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.741</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SESS_20260104_020</t>
+          <t>SESS_20260123_020</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1511,34 +1511,34 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20:53:16</t>
+          <t>10:15:30</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-09 17:49:49</t>
+          <t>2026-01-08 16:14:30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.422</t>
+          <t>Mouse anomaly detected - Score: 0.946</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SESS_20260109_021</t>
+          <t>SESS_20260108_021</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1561,34 +1561,34 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>17:49:49</t>
+          <t>16:14:30</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-06 18:16:43</t>
+          <t>2026-01-17 20:22:32</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.881</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SESS_20260106_022</t>
+          <t>SESS_20260117_022</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1611,34 +1611,34 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>18:16:43</t>
+          <t>20:22:32</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:47</t>
+          <t>2026-01-20 12:20:49</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.803</t>
+          <t>Mouse anomaly detected - Score: 0.800</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SESS_20260124_023</t>
+          <t>SESS_20260120_023</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09:41:47</t>
+          <t>12:20:49</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1678,12 +1678,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-15 09:12:30</t>
+          <t>2026-01-02 14:12:21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SESS_20260115_024</t>
+          <t>SESS_20260102_024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09:12:30</t>
+          <t>14:12:21</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1728,17 +1728,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-11 14:29:22</t>
+          <t>2026-01-05 08:07:13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.429</t>
+          <t>Mouse anomaly detected - Score: 0.757</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SESS_20260111_025</t>
+          <t>SESS_20260105_025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1761,34 +1761,34 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14:29:22</t>
+          <t>08:07:13</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-11 08:58:38</t>
+          <t>2026-01-06 16:30:34</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.479</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SESS_20260111_026</t>
+          <t>SESS_20260106_026</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1811,34 +1811,34 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>08:58:38</t>
+          <t>16:30:34</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-01 11:15:36</t>
+          <t>2026-01-14 15:48:03</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.716</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SESS_20260101_027</t>
+          <t>SESS_20260114_027</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1861,34 +1861,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11:15:36</t>
+          <t>15:48:03</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-14 13:13:37</t>
+          <t>2026-01-20 14:24:33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.857</t>
+          <t>Mouse anomaly detected - Score: 0.908</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SESS_20260114_028</t>
+          <t>SESS_20260120_028</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13:13:37</t>
+          <t>14:24:33</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1928,17 +1928,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-12 10:37:59</t>
+          <t>2026-01-06 17:58:41</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.292</t>
+          <t>Face verification failed - Similarity: 0.366</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SESS_20260112_029</t>
+          <t>SESS_20260106_029</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10:37:59</t>
+          <t>17:58:41</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1978,17 +1978,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-09 20:34:28</t>
+          <t>2026-01-25 18:34:04</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.900</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SESS_20260109_030</t>
+          <t>SESS_20260125_030</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2011,34 +2011,34 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>20:34:28</t>
+          <t>18:34:04</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-17 19:46:20</t>
+          <t>2026-01-28 11:41:14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.927</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SESS_20260117_031</t>
+          <t>SESS_20260128_031</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -2061,34 +2061,34 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>19:46:20</t>
+          <t>11:41:14</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-08 20:40:19</t>
+          <t>2026-01-02 16:49:47</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.777</t>
+          <t>Mouse anomaly detected - Score: 0.836</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SESS_20260108_032</t>
+          <t>SESS_20260102_032</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20:40:19</t>
+          <t>16:49:47</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2128,17 +2128,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-04 17:37:41</t>
+          <t>2026-01-25 13:50:37</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.482</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SESS_20260104_033</t>
+          <t>SESS_20260125_033</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2161,34 +2161,34 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17:37:41</t>
+          <t>13:50:37</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-17 19:49:41</t>
+          <t>2026-01-18 18:46:42</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.262</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SESS_20260117_034</t>
+          <t>SESS_20260118_034</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2211,34 +2211,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>19:49:41</t>
+          <t>18:46:42</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-15 19:36:13</t>
+          <t>2026-01-20 12:36:28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.704</t>
+          <t>Face verification failed - Similarity: 0.355</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2248,12 +2248,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SESS_20260115_035</t>
+          <t>SESS_20260120_035</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2261,34 +2261,34 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>19:36:13</t>
+          <t>12:36:28</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-22 12:26:52</t>
+          <t>2026-01-13 10:19:15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.261</t>
+          <t>Face verification failed - Similarity: 0.441</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SESS_20260122_036</t>
+          <t>SESS_20260113_036</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12:26:52</t>
+          <t>10:19:15</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2328,17 +2328,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-25 20:59:33</t>
+          <t>2026-01-22 10:23:34</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.275</t>
+          <t>Mouse anomaly detected - Score: 0.749</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SESS_20260125_037</t>
+          <t>SESS_20260122_037</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2361,34 +2361,34 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20:59:33</t>
+          <t>10:23:34</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-04 11:51:34</t>
+          <t>2026-01-20 11:09:57</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.817</t>
+          <t>Face verification failed - Similarity: 0.317</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SESS_20260104_038</t>
+          <t>SESS_20260120_038</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2411,34 +2411,34 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>11:51:34</t>
+          <t>11:09:57</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-20 09:10:29</t>
+          <t>2026-01-24 08:21:23</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.709</t>
+          <t>Mouse anomaly detected - Score: 0.870</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SESS_20260120_039</t>
+          <t>SESS_20260124_039</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>09:10:29</t>
+          <t>08:21:23</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2478,17 +2478,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-09 13:08:22</t>
+          <t>2026-01-05 15:49:05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.240</t>
+          <t>Face verification failed - Similarity: 0.404</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SESS_20260109_040</t>
+          <t>SESS_20260105_040</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>13:08:22</t>
+          <t>15:49:05</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2528,17 +2528,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-05 15:33:25</t>
+          <t>2026-01-14 18:30:59</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.768</t>
+          <t>Face verification failed - Similarity: 0.256</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SESS_20260105_041</t>
+          <t>SESS_20260114_041</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2561,34 +2561,34 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>15:33:25</t>
+          <t>18:30:59</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-24 10:56:43</t>
+          <t>2026-01-28 10:53:09</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.706</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2598,12 +2598,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SESS_20260124_042</t>
+          <t>SESS_20260128_042</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2611,17 +2611,117 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10:56:43</t>
+          <t>10:53:09</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-01-20 13:51:18</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.814</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SESS_20260120_043</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>13:51:18</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-01-27 12:44:15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SPOOFING_DETECTED</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.409</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SESS_20260127_044</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>12:44:15</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Face</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2879,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-01 14:11:53</t>
+          <t>2026-01-01 12:45:43</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2789,7 +2889,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.646</t>
+          <t>Mouse session - Score: 0.564</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2817,7 +2917,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>14:11:53</t>
+          <t>12:45:43</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2826,58 +2926,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>20627</v>
+        <v>15238</v>
       </c>
       <c r="L2" t="n">
-        <v>20627</v>
+        <v>15238</v>
       </c>
       <c r="M2" t="n">
-        <v>39220.32</v>
+        <v>17906.45</v>
       </c>
       <c r="N2" t="n">
-        <v>23532.19</v>
+        <v>10743.87</v>
       </c>
       <c r="O2" t="n">
-        <v>15688.13</v>
+        <v>7162.58</v>
       </c>
       <c r="P2" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>132.89</v>
+        <v>36.58</v>
       </c>
       <c r="S2" t="n">
-        <v>295.14</v>
+        <v>489.48</v>
       </c>
       <c r="T2" t="n">
-        <v>40.05</v>
+        <v>46.98</v>
       </c>
       <c r="U2" t="n">
-        <v>177.08</v>
+        <v>293.69</v>
       </c>
       <c r="V2" t="n">
-        <v>118.05</v>
+        <v>195.79</v>
       </c>
       <c r="W2" t="n">
-        <v>5.53</v>
+        <v>17.03</v>
       </c>
       <c r="X2" t="n">
-        <v>19.74</v>
+        <v>27.36</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.89</v>
+        <v>36.58</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.646</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-01 14:27:21</t>
+          <t>2026-01-01 11:28:47</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2887,7 +2987,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.522</t>
+          <t>Mouse session - Score: 0.632</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2915,7 +3015,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14:27:21</t>
+          <t>11:28:47</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2924,58 +3024,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>16564</v>
+        <v>15833</v>
       </c>
       <c r="L3" t="n">
-        <v>16564</v>
+        <v>15833</v>
       </c>
       <c r="M3" t="n">
-        <v>18516.23</v>
+        <v>25257.38</v>
       </c>
       <c r="N3" t="n">
-        <v>11109.74</v>
+        <v>15154.43</v>
       </c>
       <c r="O3" t="n">
-        <v>7406.49</v>
+        <v>10102.95</v>
       </c>
       <c r="P3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>85.67</v>
+        <v>124.08</v>
       </c>
       <c r="S3" t="n">
-        <v>216.14</v>
+        <v>203.55</v>
       </c>
       <c r="T3" t="n">
-        <v>49.42</v>
+        <v>15.28</v>
       </c>
       <c r="U3" t="n">
-        <v>129.69</v>
+        <v>122.13</v>
       </c>
       <c r="V3" t="n">
-        <v>86.45999999999999</v>
+        <v>81.42</v>
       </c>
       <c r="W3" t="n">
-        <v>10.77</v>
+        <v>26.63</v>
       </c>
       <c r="X3" t="n">
-        <v>4.51</v>
+        <v>29.58</v>
       </c>
       <c r="Y3" t="n">
-        <v>85.67</v>
+        <v>124.08</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.522</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-01 11:08:42</t>
+          <t>2026-01-01 13:38:55</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2985,7 +3085,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.511</t>
+          <t>Mouse session - Score: 0.571</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3013,7 +3113,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11:08:42</t>
+          <t>13:38:55</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3022,58 +3122,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>16155</v>
+        <v>17713</v>
       </c>
       <c r="L4" t="n">
-        <v>16155</v>
+        <v>17713</v>
       </c>
       <c r="M4" t="n">
-        <v>16978.42</v>
+        <v>25211.8</v>
       </c>
       <c r="N4" t="n">
-        <v>10187.05</v>
+        <v>15127.08</v>
       </c>
       <c r="O4" t="n">
-        <v>6791.37</v>
+        <v>10084.72</v>
       </c>
       <c r="P4" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="Q4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R4" t="n">
-        <v>77.31999999999999</v>
+        <v>105.66</v>
       </c>
       <c r="S4" t="n">
-        <v>219.58</v>
+        <v>238.61</v>
       </c>
       <c r="T4" t="n">
-        <v>21.36</v>
+        <v>46.45</v>
       </c>
       <c r="U4" t="n">
-        <v>131.75</v>
+        <v>143.16</v>
       </c>
       <c r="V4" t="n">
-        <v>87.83</v>
+        <v>95.44</v>
       </c>
       <c r="W4" t="n">
-        <v>12.29</v>
+        <v>7.69</v>
       </c>
       <c r="X4" t="n">
-        <v>13.43</v>
+        <v>19.78</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.31999999999999</v>
+        <v>105.66</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.511</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-02 13:52:01</t>
+          <t>2026-01-02 15:16:04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3083,7 +3183,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.592</t>
+          <t>Mouse session - Score: 0.635</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3111,7 +3211,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13:52:01</t>
+          <t>15:16:04</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3120,58 +3220,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>19463</v>
+        <v>10991</v>
       </c>
       <c r="L5" t="n">
-        <v>19463</v>
+        <v>10991</v>
       </c>
       <c r="M5" t="n">
-        <v>12344.22</v>
+        <v>35487.28</v>
       </c>
       <c r="N5" t="n">
-        <v>7406.53</v>
+        <v>21292.37</v>
       </c>
       <c r="O5" t="n">
-        <v>4937.69</v>
+        <v>14194.91</v>
       </c>
       <c r="P5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R5" t="n">
-        <v>125.79</v>
+        <v>43.53</v>
       </c>
       <c r="S5" t="n">
-        <v>98.13</v>
+        <v>815.2</v>
       </c>
       <c r="T5" t="n">
-        <v>37.71</v>
+        <v>47.17</v>
       </c>
       <c r="U5" t="n">
-        <v>58.88</v>
+        <v>489.12</v>
       </c>
       <c r="V5" t="n">
-        <v>39.25</v>
+        <v>326.08</v>
       </c>
       <c r="W5" t="n">
-        <v>16.09</v>
+        <v>5.85</v>
       </c>
       <c r="X5" t="n">
-        <v>17.84</v>
+        <v>17.47</v>
       </c>
       <c r="Y5" t="n">
-        <v>125.79</v>
+        <v>43.53</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.592</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-02 09:03:22</t>
+          <t>2026-01-02 13:12:35</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3181,7 +3281,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.478</t>
+          <t>Mouse session - Score: 0.568</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3209,7 +3309,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09:03:22</t>
+          <t>13:12:35</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3218,58 +3318,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>17053</v>
+        <v>5442</v>
       </c>
       <c r="L6" t="n">
-        <v>17053</v>
+        <v>5442</v>
       </c>
       <c r="M6" t="n">
-        <v>21151.13</v>
+        <v>36888.18</v>
       </c>
       <c r="N6" t="n">
-        <v>12690.68</v>
+        <v>22132.91</v>
       </c>
       <c r="O6" t="n">
-        <v>8460.450000000001</v>
+        <v>14755.27</v>
       </c>
       <c r="P6" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Q6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R6" t="n">
-        <v>51.07</v>
+        <v>83.44</v>
       </c>
       <c r="S6" t="n">
-        <v>414.13</v>
+        <v>442.12</v>
       </c>
       <c r="T6" t="n">
-        <v>19.45</v>
+        <v>29.12</v>
       </c>
       <c r="U6" t="n">
-        <v>248.48</v>
+        <v>265.27</v>
       </c>
       <c r="V6" t="n">
-        <v>165.65</v>
+        <v>176.85</v>
       </c>
       <c r="W6" t="n">
-        <v>8.27</v>
+        <v>11.45</v>
       </c>
       <c r="X6" t="n">
-        <v>5.53</v>
+        <v>25.08</v>
       </c>
       <c r="Y6" t="n">
-        <v>51.07</v>
+        <v>83.44</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.478</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-02 15:11:50</t>
+          <t>2026-01-02 13:06:07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3279,7 +3379,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.595</t>
+          <t>Mouse session - Score: 0.819</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3294,11 +3394,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3307,7 +3407,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15:11:50</t>
+          <t>13:06:07</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3316,58 +3416,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>9845</v>
+        <v>25115</v>
       </c>
       <c r="L7" t="n">
-        <v>9845</v>
+        <v>25115</v>
       </c>
       <c r="M7" t="n">
-        <v>34998.51</v>
+        <v>12330.14</v>
       </c>
       <c r="N7" t="n">
-        <v>20999.11</v>
+        <v>7398.09</v>
       </c>
       <c r="O7" t="n">
-        <v>13999.41</v>
+        <v>4932.06</v>
       </c>
       <c r="P7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R7" t="n">
-        <v>164.66</v>
+        <v>30.85</v>
       </c>
       <c r="S7" t="n">
-        <v>212.55</v>
+        <v>399.63</v>
       </c>
       <c r="T7" t="n">
-        <v>18.17</v>
+        <v>30.84</v>
       </c>
       <c r="U7" t="n">
-        <v>127.53</v>
+        <v>239.78</v>
       </c>
       <c r="V7" t="n">
-        <v>85.02</v>
+        <v>159.85</v>
       </c>
       <c r="W7" t="n">
-        <v>10.06</v>
+        <v>23.02</v>
       </c>
       <c r="X7" t="n">
-        <v>8.58</v>
+        <v>26.51</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.66</v>
+        <v>30.85</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.595</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-05 17:05:03</t>
+          <t>2026-01-03 09:36:01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3377,7 +3477,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.591</t>
+          <t>Mouse session - Score: 0.476</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3387,7 +3487,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOUSE_20260105_000</t>
+          <t>MOUSE_20260103_000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3400,12 +3500,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17:05:03</t>
+          <t>09:36:01</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3414,58 +3514,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>18654</v>
+        <v>26107</v>
       </c>
       <c r="L8" t="n">
-        <v>18654</v>
+        <v>26107</v>
       </c>
       <c r="M8" t="n">
-        <v>11579.6</v>
+        <v>23098.2</v>
       </c>
       <c r="N8" t="n">
-        <v>6947.76</v>
+        <v>13858.92</v>
       </c>
       <c r="O8" t="n">
-        <v>4631.84</v>
+        <v>9239.280000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>79.15000000000001</v>
+        <v>171.81</v>
       </c>
       <c r="S8" t="n">
-        <v>146.3</v>
+        <v>134.44</v>
       </c>
       <c r="T8" t="n">
-        <v>46.98</v>
+        <v>42.68</v>
       </c>
       <c r="U8" t="n">
-        <v>87.78</v>
+        <v>80.66</v>
       </c>
       <c r="V8" t="n">
-        <v>58.52</v>
+        <v>53.78</v>
       </c>
       <c r="W8" t="n">
-        <v>9.19</v>
+        <v>13.79</v>
       </c>
       <c r="X8" t="n">
-        <v>29.61</v>
+        <v>25.46</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.15000000000001</v>
+        <v>171.81</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.591</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-05 14:54:38</t>
+          <t>2026-01-03 16:37:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3475,7 +3575,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.608</t>
+          <t>Mouse session - Score: 0.529</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3485,7 +3585,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MOUSE_20260105_001</t>
+          <t>MOUSE_20260103_001</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3498,12 +3598,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>14:54:38</t>
+          <t>16:37:30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3512,58 +3612,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>25860</v>
+        <v>22778</v>
       </c>
       <c r="L9" t="n">
-        <v>25860</v>
+        <v>22778</v>
       </c>
       <c r="M9" t="n">
-        <v>8543.299999999999</v>
+        <v>24887.89</v>
       </c>
       <c r="N9" t="n">
-        <v>5125.98</v>
+        <v>14932.73</v>
       </c>
       <c r="O9" t="n">
-        <v>3417.32</v>
+        <v>9955.15</v>
       </c>
       <c r="P9" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="R9" t="n">
-        <v>142.7</v>
+        <v>122.03</v>
       </c>
       <c r="S9" t="n">
-        <v>59.87</v>
+        <v>203.96</v>
       </c>
       <c r="T9" t="n">
-        <v>39.48</v>
+        <v>15</v>
       </c>
       <c r="U9" t="n">
-        <v>35.92</v>
+        <v>122.37</v>
       </c>
       <c r="V9" t="n">
-        <v>23.95</v>
+        <v>81.58</v>
       </c>
       <c r="W9" t="n">
-        <v>23.56</v>
+        <v>27.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.4</v>
+        <v>3.12</v>
       </c>
       <c r="Y9" t="n">
-        <v>142.7</v>
+        <v>122.03</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.608</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-05 10:32:28</t>
+          <t>2026-01-03 17:36:36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3573,7 +3673,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.452</t>
+          <t>Mouse session - Score: 0.481</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3583,7 +3683,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOUSE_20260105_002</t>
+          <t>MOUSE_20260103_002</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3596,12 +3696,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10:32:28</t>
+          <t>17:36:36</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3610,58 +3710,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>29028</v>
+        <v>24057</v>
       </c>
       <c r="L10" t="n">
-        <v>29028</v>
+        <v>24057</v>
       </c>
       <c r="M10" t="n">
-        <v>32561.09</v>
+        <v>38962.17</v>
       </c>
       <c r="N10" t="n">
-        <v>19536.66</v>
+        <v>23377.3</v>
       </c>
       <c r="O10" t="n">
-        <v>13024.44</v>
+        <v>15584.87</v>
       </c>
       <c r="P10" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R10" t="n">
-        <v>171.01</v>
+        <v>106.23</v>
       </c>
       <c r="S10" t="n">
-        <v>190.41</v>
+        <v>366.76</v>
       </c>
       <c r="T10" t="n">
-        <v>12.62</v>
+        <v>44.99</v>
       </c>
       <c r="U10" t="n">
-        <v>114.25</v>
+        <v>220.05</v>
       </c>
       <c r="V10" t="n">
-        <v>76.16</v>
+        <v>146.7</v>
       </c>
       <c r="W10" t="n">
-        <v>3.74</v>
+        <v>29.67</v>
       </c>
       <c r="X10" t="n">
-        <v>28.16</v>
+        <v>28.99</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.01</v>
+        <v>106.23</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.452</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-06 15:16:01</t>
+          <t>2026-01-04 12:43:40</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3671,7 +3771,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.624</t>
+          <t>Mouse session - Score: 0.591</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3681,7 +3781,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MOUSE_20260106_000</t>
+          <t>MOUSE_20260104_000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3694,12 +3794,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15:16:01</t>
+          <t>12:43:40</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3708,58 +3808,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>18410</v>
+        <v>22059</v>
       </c>
       <c r="L11" t="n">
-        <v>18410</v>
+        <v>22059</v>
       </c>
       <c r="M11" t="n">
-        <v>22433.03</v>
+        <v>9135.33</v>
       </c>
       <c r="N11" t="n">
-        <v>13459.82</v>
+        <v>5481.2</v>
       </c>
       <c r="O11" t="n">
-        <v>8973.209999999999</v>
+        <v>3654.13</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="Q11" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>116.32</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>192.85</v>
+        <v>129.31</v>
       </c>
       <c r="T11" t="n">
-        <v>34.55</v>
+        <v>34.63</v>
       </c>
       <c r="U11" t="n">
-        <v>115.71</v>
+        <v>77.58</v>
       </c>
       <c r="V11" t="n">
-        <v>77.14</v>
+        <v>51.72</v>
       </c>
       <c r="W11" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="X11" t="n">
         <v>18.43</v>
       </c>
-      <c r="X11" t="n">
-        <v>20.99</v>
-      </c>
       <c r="Y11" t="n">
-        <v>116.32</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.624</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-06 16:39:02</t>
+          <t>2026-01-04 12:07:17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3769,7 +3869,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.525</t>
+          <t>Mouse session - Score: 0.571</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3779,7 +3879,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOUSE_20260106_001</t>
+          <t>MOUSE_20260104_001</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3792,12 +3892,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:39:02</t>
+          <t>12:07:17</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3806,58 +3906,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>7359</v>
+        <v>11509</v>
       </c>
       <c r="L12" t="n">
-        <v>7359</v>
+        <v>11509</v>
       </c>
       <c r="M12" t="n">
-        <v>28928.33</v>
+        <v>16411.11</v>
       </c>
       <c r="N12" t="n">
-        <v>17357</v>
+        <v>9846.67</v>
       </c>
       <c r="O12" t="n">
-        <v>11571.33</v>
+        <v>6564.44</v>
       </c>
       <c r="P12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12" t="n">
-        <v>49.84</v>
+        <v>127.02</v>
       </c>
       <c r="S12" t="n">
-        <v>580.42</v>
+        <v>129.2</v>
       </c>
       <c r="T12" t="n">
-        <v>44.43</v>
+        <v>18.97</v>
       </c>
       <c r="U12" t="n">
-        <v>348.25</v>
+        <v>77.52</v>
       </c>
       <c r="V12" t="n">
-        <v>232.17</v>
+        <v>51.68</v>
       </c>
       <c r="W12" t="n">
-        <v>3.93</v>
+        <v>12.05</v>
       </c>
       <c r="X12" t="n">
-        <v>17.05</v>
+        <v>18.57</v>
       </c>
       <c r="Y12" t="n">
-        <v>49.84</v>
+        <v>127.02</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.525</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-06 10:23:26</t>
+          <t>2026-01-04 10:56:46</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3867,7 +3967,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.631</t>
+          <t>Mouse session - Score: 0.568</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3877,7 +3977,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOUSE_20260106_002</t>
+          <t>MOUSE_20260104_002</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3890,12 +3990,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10:23:26</t>
+          <t>10:56:46</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3904,58 +4004,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>13692</v>
+        <v>24319</v>
       </c>
       <c r="L13" t="n">
-        <v>13692</v>
+        <v>24319</v>
       </c>
       <c r="M13" t="n">
-        <v>20608.95</v>
+        <v>10929.33</v>
       </c>
       <c r="N13" t="n">
-        <v>12365.37</v>
+        <v>6557.6</v>
       </c>
       <c r="O13" t="n">
-        <v>8243.58</v>
+        <v>4371.73</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Q13" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>141.31</v>
+        <v>128.73</v>
       </c>
       <c r="S13" t="n">
-        <v>145.85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="T13" t="n">
-        <v>25.95</v>
+        <v>30.37</v>
       </c>
       <c r="U13" t="n">
-        <v>87.51000000000001</v>
+        <v>50.94</v>
       </c>
       <c r="V13" t="n">
-        <v>58.34</v>
+        <v>33.96</v>
       </c>
       <c r="W13" t="n">
-        <v>20.34</v>
+        <v>16.2</v>
       </c>
       <c r="X13" t="n">
-        <v>12.27</v>
+        <v>5.21</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.31</v>
+        <v>128.73</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.631</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-07 10:24:43</t>
+          <t>2026-01-05 17:52:57</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3965,7 +4065,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.493</t>
+          <t>Mouse session - Score: 0.632</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3975,7 +4075,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MOUSE_20260107_000</t>
+          <t>MOUSE_20260105_000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3988,12 +4088,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10:24:43</t>
+          <t>17:52:57</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -4002,58 +4102,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>25742</v>
+        <v>26897</v>
       </c>
       <c r="L14" t="n">
-        <v>25742</v>
+        <v>26897</v>
       </c>
       <c r="M14" t="n">
-        <v>29923.73</v>
+        <v>30416.59</v>
       </c>
       <c r="N14" t="n">
-        <v>17954.24</v>
+        <v>18249.95</v>
       </c>
       <c r="O14" t="n">
-        <v>11969.49</v>
+        <v>12166.64</v>
       </c>
       <c r="P14" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="R14" t="n">
-        <v>143.29</v>
+        <v>50.21</v>
       </c>
       <c r="S14" t="n">
-        <v>208.83</v>
+        <v>605.8099999999999</v>
       </c>
       <c r="T14" t="n">
-        <v>17.92</v>
+        <v>17.9</v>
       </c>
       <c r="U14" t="n">
-        <v>125.3</v>
+        <v>363.49</v>
       </c>
       <c r="V14" t="n">
-        <v>83.53</v>
+        <v>242.32</v>
       </c>
       <c r="W14" t="n">
-        <v>28.66</v>
+        <v>25.94</v>
       </c>
       <c r="X14" t="n">
-        <v>18.42</v>
+        <v>16.85</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.29</v>
+        <v>50.21</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.493</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-07 12:55:13</t>
+          <t>2026-01-05 13:01:27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4063,7 +4163,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.886</t>
+          <t>Mouse session - Score: 0.940</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4073,7 +4173,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MOUSE_20260107_001</t>
+          <t>MOUSE_20260105_001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4086,12 +4186,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12:55:13</t>
+          <t>13:01:27</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -4100,58 +4200,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>23320</v>
+        <v>10335</v>
       </c>
       <c r="L15" t="n">
-        <v>23320</v>
+        <v>10335</v>
       </c>
       <c r="M15" t="n">
-        <v>15479.75</v>
+        <v>31938.56</v>
       </c>
       <c r="N15" t="n">
-        <v>9287.85</v>
+        <v>19163.14</v>
       </c>
       <c r="O15" t="n">
-        <v>6191.9</v>
+        <v>12775.42</v>
       </c>
       <c r="P15" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R15" t="n">
-        <v>48.03</v>
+        <v>64.72</v>
       </c>
       <c r="S15" t="n">
-        <v>322.26</v>
+        <v>493.52</v>
       </c>
       <c r="T15" t="n">
-        <v>21.44</v>
+        <v>37.59</v>
       </c>
       <c r="U15" t="n">
-        <v>193.36</v>
+        <v>296.11</v>
       </c>
       <c r="V15" t="n">
-        <v>128.91</v>
+        <v>197.41</v>
       </c>
       <c r="W15" t="n">
-        <v>23.6</v>
+        <v>20.36</v>
       </c>
       <c r="X15" t="n">
-        <v>7.14</v>
+        <v>13.18</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.03</v>
+        <v>64.72</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.886</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-07 15:49:45</t>
+          <t>2026-01-05 15:56:22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4161,7 +4261,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.580</t>
+          <t>Mouse session - Score: 0.557</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4171,7 +4271,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOUSE_20260107_002</t>
+          <t>MOUSE_20260105_002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4184,12 +4284,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15:49:45</t>
+          <t>15:56:22</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -4198,58 +4298,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>23172</v>
+        <v>8814</v>
       </c>
       <c r="L16" t="n">
-        <v>23172</v>
+        <v>8814</v>
       </c>
       <c r="M16" t="n">
-        <v>28906.4</v>
+        <v>34598.4</v>
       </c>
       <c r="N16" t="n">
-        <v>17343.84</v>
+        <v>20759.04</v>
       </c>
       <c r="O16" t="n">
-        <v>11562.56</v>
+        <v>13839.36</v>
       </c>
       <c r="P16" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>166.02</v>
+        <v>168.52</v>
       </c>
       <c r="S16" t="n">
-        <v>174.11</v>
+        <v>205.31</v>
       </c>
       <c r="T16" t="n">
-        <v>49.36</v>
+        <v>37.47</v>
       </c>
       <c r="U16" t="n">
-        <v>104.47</v>
+        <v>123.18</v>
       </c>
       <c r="V16" t="n">
-        <v>69.65000000000001</v>
+        <v>82.12</v>
       </c>
       <c r="W16" t="n">
-        <v>17.71</v>
+        <v>6.04</v>
       </c>
       <c r="X16" t="n">
-        <v>13.19</v>
+        <v>7.91</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.02</v>
+        <v>168.52</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.58</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-08 11:08:29</t>
+          <t>2026-01-06 17:46:14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4259,7 +4359,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.459</t>
+          <t>Mouse session - Score: 0.553</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4269,7 +4369,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUSE_20260108_000</t>
+          <t>MOUSE_20260106_000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4282,12 +4382,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11:08:29</t>
+          <t>17:46:14</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -4296,58 +4396,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>17671</v>
+        <v>11564</v>
       </c>
       <c r="L17" t="n">
-        <v>17671</v>
+        <v>11564</v>
       </c>
       <c r="M17" t="n">
-        <v>35500.01</v>
+        <v>29653.15</v>
       </c>
       <c r="N17" t="n">
-        <v>21300.01</v>
+        <v>17791.89</v>
       </c>
       <c r="O17" t="n">
-        <v>14200</v>
+        <v>11861.26</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
-        <v>94.81</v>
+        <v>155.63</v>
       </c>
       <c r="S17" t="n">
-        <v>374.45</v>
+        <v>190.54</v>
       </c>
       <c r="T17" t="n">
-        <v>30.52</v>
+        <v>13.5</v>
       </c>
       <c r="U17" t="n">
-        <v>224.67</v>
+        <v>114.32</v>
       </c>
       <c r="V17" t="n">
-        <v>149.78</v>
+        <v>76.22</v>
       </c>
       <c r="W17" t="n">
-        <v>17.32</v>
+        <v>29.05</v>
       </c>
       <c r="X17" t="n">
-        <v>13.89</v>
+        <v>18.15</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.81</v>
+        <v>155.63</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.459</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-08 17:03:50</t>
+          <t>2026-01-06 12:18:05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4357,7 +4457,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.491</t>
+          <t>Mouse session - Score: 0.595</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4367,7 +4467,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20260108_001</t>
+          <t>MOUSE_20260106_001</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4380,12 +4480,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17:03:50</t>
+          <t>12:18:05</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4394,58 +4494,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>11860</v>
+        <v>11601</v>
       </c>
       <c r="L18" t="n">
-        <v>11860</v>
+        <v>11601</v>
       </c>
       <c r="M18" t="n">
-        <v>5704.37</v>
+        <v>34923.58</v>
       </c>
       <c r="N18" t="n">
-        <v>3422.62</v>
+        <v>20954.15</v>
       </c>
       <c r="O18" t="n">
-        <v>2281.75</v>
+        <v>13969.43</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.23</v>
+        <v>63.42</v>
       </c>
       <c r="S18" t="n">
-        <v>126.13</v>
+        <v>550.6799999999999</v>
       </c>
       <c r="T18" t="n">
-        <v>9.130000000000001</v>
+        <v>44.28</v>
       </c>
       <c r="U18" t="n">
-        <v>75.68000000000001</v>
+        <v>330.41</v>
       </c>
       <c r="V18" t="n">
-        <v>50.45</v>
+        <v>220.27</v>
       </c>
       <c r="W18" t="n">
-        <v>18.62</v>
+        <v>14.39</v>
       </c>
       <c r="X18" t="n">
-        <v>18.86</v>
+        <v>8.82</v>
       </c>
       <c r="Y18" t="n">
-        <v>45.23</v>
+        <v>63.42</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.491</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-08 16:40:33</t>
+          <t>2026-01-06 09:40:29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4455,7 +4555,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.614</t>
+          <t>Mouse session - Score: 0.634</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4465,7 +4565,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20260108_002</t>
+          <t>MOUSE_20260106_002</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4478,12 +4578,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16:40:33</t>
+          <t>09:40:29</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4492,58 +4592,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>16122</v>
+        <v>15043</v>
       </c>
       <c r="L19" t="n">
-        <v>16122</v>
+        <v>15043</v>
       </c>
       <c r="M19" t="n">
-        <v>24518.51</v>
+        <v>16603.59</v>
       </c>
       <c r="N19" t="n">
-        <v>14711.11</v>
+        <v>9962.16</v>
       </c>
       <c r="O19" t="n">
-        <v>9807.4</v>
+        <v>6641.44</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R19" t="n">
-        <v>43.09</v>
+        <v>51.52</v>
       </c>
       <c r="S19" t="n">
-        <v>568.96</v>
+        <v>322.29</v>
       </c>
       <c r="T19" t="n">
-        <v>29.53</v>
+        <v>5.24</v>
       </c>
       <c r="U19" t="n">
-        <v>341.38</v>
+        <v>193.37</v>
       </c>
       <c r="V19" t="n">
-        <v>227.58</v>
+        <v>128.92</v>
       </c>
       <c r="W19" t="n">
-        <v>14.98</v>
+        <v>4.98</v>
       </c>
       <c r="X19" t="n">
-        <v>18.68</v>
+        <v>10.18</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.09</v>
+        <v>51.52</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.614</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-09 13:54:20</t>
+          <t>2026-01-07 15:19:52</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4553,7 +4653,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.514</t>
+          <t>Mouse session - Score: 0.640</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4563,7 +4663,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260109_000</t>
+          <t>MOUSE_20260107_000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4576,12 +4676,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>13:54:20</t>
+          <t>15:19:52</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4590,58 +4690,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>21377</v>
+        <v>16637</v>
       </c>
       <c r="L20" t="n">
-        <v>21377</v>
+        <v>16637</v>
       </c>
       <c r="M20" t="n">
-        <v>33350</v>
+        <v>16247.71</v>
       </c>
       <c r="N20" t="n">
-        <v>20010</v>
+        <v>9748.620000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>13340</v>
+        <v>6499.08</v>
       </c>
       <c r="P20" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R20" t="n">
-        <v>54.78</v>
+        <v>35.54</v>
       </c>
       <c r="S20" t="n">
-        <v>608.8</v>
+        <v>457.23</v>
       </c>
       <c r="T20" t="n">
-        <v>28.36</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="U20" t="n">
-        <v>365.28</v>
+        <v>274.34</v>
       </c>
       <c r="V20" t="n">
-        <v>243.52</v>
+        <v>182.89</v>
       </c>
       <c r="W20" t="n">
-        <v>6.72</v>
+        <v>27.31</v>
       </c>
       <c r="X20" t="n">
-        <v>26.69</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>54.78</v>
+        <v>35.54</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.514</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-09 15:16:20</t>
+          <t>2026-01-07 10:18:55</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4651,7 +4751,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.478</t>
+          <t>Mouse session - Score: 0.543</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4661,7 +4761,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260109_001</t>
+          <t>MOUSE_20260107_001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4674,12 +4774,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15:16:20</t>
+          <t>10:18:55</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4688,58 +4788,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>29529</v>
+        <v>18856</v>
       </c>
       <c r="L21" t="n">
-        <v>29529</v>
+        <v>18856</v>
       </c>
       <c r="M21" t="n">
-        <v>23818.1</v>
+        <v>35327.83</v>
       </c>
       <c r="N21" t="n">
-        <v>14290.86</v>
+        <v>21196.7</v>
       </c>
       <c r="O21" t="n">
-        <v>9527.24</v>
+        <v>14131.13</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="R21" t="n">
-        <v>107.72</v>
+        <v>69.7</v>
       </c>
       <c r="S21" t="n">
-        <v>221.1</v>
+        <v>506.89</v>
       </c>
       <c r="T21" t="n">
-        <v>18.74</v>
+        <v>24.61</v>
       </c>
       <c r="U21" t="n">
-        <v>132.66</v>
+        <v>304.13</v>
       </c>
       <c r="V21" t="n">
-        <v>88.44</v>
+        <v>202.76</v>
       </c>
       <c r="W21" t="n">
-        <v>15.96</v>
+        <v>21.67</v>
       </c>
       <c r="X21" t="n">
-        <v>19.69</v>
+        <v>7.08</v>
       </c>
       <c r="Y21" t="n">
-        <v>107.72</v>
+        <v>69.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.478</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-09 10:14:50</t>
+          <t>2026-01-07 10:42:13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4749,7 +4849,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.915</t>
+          <t>Mouse session - Score: 0.553</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4759,25 +4859,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260109_002</t>
+          <t>MOUSE_20260107_002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10:14:50</t>
+          <t>10:42:13</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4786,58 +4886,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>10536</v>
+        <v>29012</v>
       </c>
       <c r="L22" t="n">
-        <v>10536</v>
+        <v>29012</v>
       </c>
       <c r="M22" t="n">
-        <v>17526.02</v>
+        <v>9248.92</v>
       </c>
       <c r="N22" t="n">
-        <v>10515.61</v>
+        <v>5549.35</v>
       </c>
       <c r="O22" t="n">
-        <v>7010.41</v>
+        <v>3699.57</v>
       </c>
       <c r="P22" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="R22" t="n">
-        <v>30.29</v>
+        <v>109.27</v>
       </c>
       <c r="S22" t="n">
-        <v>578.54</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="T22" t="n">
-        <v>22.65</v>
+        <v>48.6</v>
       </c>
       <c r="U22" t="n">
-        <v>347.12</v>
+        <v>50.79</v>
       </c>
       <c r="V22" t="n">
-        <v>231.41</v>
+        <v>33.86</v>
       </c>
       <c r="W22" t="n">
-        <v>9.1</v>
+        <v>8.18</v>
       </c>
       <c r="X22" t="n">
-        <v>24.56</v>
+        <v>15.28</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.29</v>
+        <v>109.27</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.915</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-10 13:23:04</t>
+          <t>2026-01-08 09:55:44</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4847,7 +4947,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.619</t>
+          <t>Mouse session - Score: 0.553</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4857,7 +4957,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20260110_000</t>
+          <t>MOUSE_20260108_000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4870,12 +4970,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13:23:04</t>
+          <t>09:55:44</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4884,58 +4984,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>21367</v>
+        <v>22516</v>
       </c>
       <c r="L23" t="n">
-        <v>21367</v>
+        <v>22516</v>
       </c>
       <c r="M23" t="n">
-        <v>6964.59</v>
+        <v>21334.65</v>
       </c>
       <c r="N23" t="n">
-        <v>4178.75</v>
+        <v>12800.79</v>
       </c>
       <c r="O23" t="n">
-        <v>2785.83</v>
+        <v>8533.860000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="R23" t="n">
-        <v>86.17</v>
+        <v>92.78</v>
       </c>
       <c r="S23" t="n">
-        <v>80.83</v>
+        <v>229.95</v>
       </c>
       <c r="T23" t="n">
-        <v>42.73</v>
+        <v>6.16</v>
       </c>
       <c r="U23" t="n">
-        <v>48.5</v>
+        <v>137.97</v>
       </c>
       <c r="V23" t="n">
-        <v>32.33</v>
+        <v>91.98</v>
       </c>
       <c r="W23" t="n">
-        <v>4.5</v>
+        <v>27.89</v>
       </c>
       <c r="X23" t="n">
-        <v>5.22</v>
+        <v>28.98</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.17</v>
+        <v>92.78</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.619</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-10 10:37:48</t>
+          <t>2026-01-08 12:59:56</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4945,7 +5045,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.481</t>
+          <t>Mouse session - Score: 0.455</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4955,7 +5055,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20260110_001</t>
+          <t>MOUSE_20260108_001</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4968,12 +5068,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10:37:48</t>
+          <t>12:59:56</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4982,58 +5082,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>24127</v>
+        <v>19463</v>
       </c>
       <c r="L24" t="n">
-        <v>24127</v>
+        <v>19463</v>
       </c>
       <c r="M24" t="n">
-        <v>16341.21</v>
+        <v>29439.47</v>
       </c>
       <c r="N24" t="n">
-        <v>9804.73</v>
+        <v>17663.68</v>
       </c>
       <c r="O24" t="n">
-        <v>6536.48</v>
+        <v>11775.79</v>
       </c>
       <c r="P24" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q24" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>69.20999999999999</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>236.12</v>
+        <v>387.01</v>
       </c>
       <c r="T24" t="n">
-        <v>6.15</v>
+        <v>38.83</v>
       </c>
       <c r="U24" t="n">
-        <v>141.67</v>
+        <v>232.21</v>
       </c>
       <c r="V24" t="n">
-        <v>94.45</v>
+        <v>154.81</v>
       </c>
       <c r="W24" t="n">
-        <v>11.42</v>
+        <v>14.13</v>
       </c>
       <c r="X24" t="n">
-        <v>7.35</v>
+        <v>18.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>69.20999999999999</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.481</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-10 15:07:25</t>
+          <t>2026-01-08 12:54:04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5043,7 +5143,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.459</t>
+          <t>Mouse session - Score: 0.470</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5053,7 +5153,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20260110_002</t>
+          <t>MOUSE_20260108_002</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5066,12 +5166,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15:07:25</t>
+          <t>12:54:04</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5080,58 +5180,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>26573</v>
+        <v>10904</v>
       </c>
       <c r="L25" t="n">
-        <v>26573</v>
+        <v>10904</v>
       </c>
       <c r="M25" t="n">
-        <v>23178.16</v>
+        <v>34010.95</v>
       </c>
       <c r="N25" t="n">
-        <v>13906.89</v>
+        <v>20406.57</v>
       </c>
       <c r="O25" t="n">
-        <v>9271.26</v>
+        <v>13604.38</v>
       </c>
       <c r="P25" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q25" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="R25" t="n">
-        <v>118.16</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>196.15</v>
+        <v>400.58</v>
       </c>
       <c r="T25" t="n">
-        <v>35</v>
+        <v>14.93</v>
       </c>
       <c r="U25" t="n">
-        <v>117.69</v>
+        <v>240.35</v>
       </c>
       <c r="V25" t="n">
-        <v>78.45999999999999</v>
+        <v>160.23</v>
       </c>
       <c r="W25" t="n">
-        <v>20.15</v>
+        <v>24.6</v>
       </c>
       <c r="X25" t="n">
-        <v>10.16</v>
+        <v>27.78</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.16</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.459</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-11 14:36:34</t>
+          <t>2026-01-09 09:28:41</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5141,7 +5241,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.513</t>
+          <t>Mouse session - Score: 0.617</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5151,7 +5251,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20260111_000</t>
+          <t>MOUSE_20260109_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5164,12 +5264,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14:36:34</t>
+          <t>09:28:41</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5178,58 +5278,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>15926</v>
+        <v>25443</v>
       </c>
       <c r="L26" t="n">
-        <v>15926</v>
+        <v>25443</v>
       </c>
       <c r="M26" t="n">
-        <v>29987.58</v>
+        <v>24399.12</v>
       </c>
       <c r="N26" t="n">
-        <v>17992.55</v>
+        <v>14639.47</v>
       </c>
       <c r="O26" t="n">
-        <v>11995.03</v>
+        <v>9759.65</v>
       </c>
       <c r="P26" t="n">
         <v>24</v>
       </c>
       <c r="Q26" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R26" t="n">
-        <v>46.77</v>
+        <v>57.49</v>
       </c>
       <c r="S26" t="n">
-        <v>641.1799999999999</v>
+        <v>424.39</v>
       </c>
       <c r="T26" t="n">
-        <v>32.54</v>
+        <v>30.81</v>
       </c>
       <c r="U26" t="n">
-        <v>384.71</v>
+        <v>254.63</v>
       </c>
       <c r="V26" t="n">
-        <v>256.47</v>
+        <v>169.75</v>
       </c>
       <c r="W26" t="n">
-        <v>11.15</v>
+        <v>25.5</v>
       </c>
       <c r="X26" t="n">
-        <v>15.89</v>
+        <v>27</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.77</v>
+        <v>57.49</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.513</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-11 15:04:28</t>
+          <t>2026-01-09 11:21:56</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5239,7 +5339,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.489</t>
+          <t>Mouse session - Score: 0.866</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5249,25 +5349,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20260111_001</t>
+          <t>MOUSE_20260109_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>15:04:28</t>
+          <t>11:21:56</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5276,58 +5376,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>25482</v>
+        <v>8119</v>
       </c>
       <c r="L27" t="n">
-        <v>25482</v>
+        <v>8119</v>
       </c>
       <c r="M27" t="n">
-        <v>10883.16</v>
+        <v>7938.13</v>
       </c>
       <c r="N27" t="n">
-        <v>6529.9</v>
+        <v>4762.88</v>
       </c>
       <c r="O27" t="n">
-        <v>4353.27</v>
+        <v>3175.25</v>
       </c>
       <c r="P27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="R27" t="n">
-        <v>121.53</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>89.55</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>5.87</v>
+        <v>42.41</v>
       </c>
       <c r="U27" t="n">
-        <v>53.73</v>
+        <v>52.54</v>
       </c>
       <c r="V27" t="n">
-        <v>35.82</v>
+        <v>35.03</v>
       </c>
       <c r="W27" t="n">
-        <v>5.59</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="X27" t="n">
-        <v>16.43</v>
+        <v>4.52</v>
       </c>
       <c r="Y27" t="n">
-        <v>121.53</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.489</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-11 16:24:44</t>
+          <t>2026-01-09 09:40:48</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5337,7 +5437,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.544</t>
+          <t>Mouse session - Score: 0.523</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5347,7 +5447,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20260111_002</t>
+          <t>MOUSE_20260109_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5360,12 +5460,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>16:24:44</t>
+          <t>09:40:48</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5374,58 +5474,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>23782</v>
+        <v>25873</v>
       </c>
       <c r="L28" t="n">
-        <v>23782</v>
+        <v>25873</v>
       </c>
       <c r="M28" t="n">
-        <v>14025.32</v>
+        <v>7782.47</v>
       </c>
       <c r="N28" t="n">
-        <v>8415.190000000001</v>
+        <v>4669.48</v>
       </c>
       <c r="O28" t="n">
-        <v>5610.13</v>
+        <v>3112.99</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Q28" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="R28" t="n">
-        <v>118.12</v>
+        <v>50.84</v>
       </c>
       <c r="S28" t="n">
-        <v>118.74</v>
+        <v>153.08</v>
       </c>
       <c r="T28" t="n">
-        <v>12.33</v>
+        <v>28.47</v>
       </c>
       <c r="U28" t="n">
-        <v>71.23999999999999</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="V28" t="n">
-        <v>47.49</v>
+        <v>61.23</v>
       </c>
       <c r="W28" t="n">
-        <v>4.04</v>
+        <v>17.91</v>
       </c>
       <c r="X28" t="n">
-        <v>25.48</v>
+        <v>23.49</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.12</v>
+        <v>50.84</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.544</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-12 16:56:59</t>
+          <t>2026-01-12 16:36:40</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5435,7 +5535,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.508</t>
+          <t>Mouse session - Score: 0.583</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5463,7 +5563,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16:56:59</t>
+          <t>16:36:40</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5472,58 +5572,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>11203</v>
+        <v>13045</v>
       </c>
       <c r="L29" t="n">
-        <v>11203</v>
+        <v>13045</v>
       </c>
       <c r="M29" t="n">
-        <v>27687.77</v>
+        <v>39854.58</v>
       </c>
       <c r="N29" t="n">
-        <v>16612.66</v>
+        <v>23912.75</v>
       </c>
       <c r="O29" t="n">
-        <v>11075.11</v>
+        <v>15941.83</v>
       </c>
       <c r="P29" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="Q29" t="n">
-        <v>10</v>
-      </c>
       <c r="R29" t="n">
-        <v>42.64</v>
+        <v>154.59</v>
       </c>
       <c r="S29" t="n">
-        <v>649.37</v>
+        <v>257.81</v>
       </c>
       <c r="T29" t="n">
-        <v>8.130000000000001</v>
+        <v>46.8</v>
       </c>
       <c r="U29" t="n">
-        <v>389.62</v>
+        <v>154.68</v>
       </c>
       <c r="V29" t="n">
-        <v>259.75</v>
+        <v>103.12</v>
       </c>
       <c r="W29" t="n">
-        <v>6.68</v>
+        <v>29.2</v>
       </c>
       <c r="X29" t="n">
-        <v>19.08</v>
+        <v>5.93</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.64</v>
+        <v>154.59</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.508</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-12 15:54:51</t>
+          <t>2026-01-12 13:11:23</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5533,7 +5633,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.622</t>
+          <t>Mouse session - Score: 0.511</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5561,7 +5661,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15:54:51</t>
+          <t>13:11:23</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5570,58 +5670,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>7484</v>
+        <v>13305</v>
       </c>
       <c r="L30" t="n">
-        <v>7484</v>
+        <v>13305</v>
       </c>
       <c r="M30" t="n">
-        <v>7822.6</v>
+        <v>17067.21</v>
       </c>
       <c r="N30" t="n">
-        <v>4693.56</v>
+        <v>10240.33</v>
       </c>
       <c r="O30" t="n">
-        <v>3129.04</v>
+        <v>6826.88</v>
       </c>
       <c r="P30" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R30" t="n">
-        <v>141.67</v>
+        <v>43.09</v>
       </c>
       <c r="S30" t="n">
-        <v>55.22</v>
+        <v>396.07</v>
       </c>
       <c r="T30" t="n">
-        <v>41.14</v>
+        <v>36.59</v>
       </c>
       <c r="U30" t="n">
-        <v>33.13</v>
+        <v>237.64</v>
       </c>
       <c r="V30" t="n">
-        <v>22.09</v>
+        <v>158.43</v>
       </c>
       <c r="W30" t="n">
-        <v>25.72</v>
+        <v>14.6</v>
       </c>
       <c r="X30" t="n">
-        <v>25.78</v>
+        <v>23.48</v>
       </c>
       <c r="Y30" t="n">
-        <v>141.67</v>
+        <v>43.09</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.622</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-12 13:54:39</t>
+          <t>2026-01-12 13:18:40</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5631,7 +5731,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.491</t>
+          <t>Mouse session - Score: 0.638</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5659,7 +5759,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13:54:39</t>
+          <t>13:18:40</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5668,58 +5768,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>24479</v>
+        <v>28832</v>
       </c>
       <c r="L31" t="n">
-        <v>24479</v>
+        <v>28832</v>
       </c>
       <c r="M31" t="n">
-        <v>31710.6</v>
+        <v>6959.83</v>
       </c>
       <c r="N31" t="n">
-        <v>19026.36</v>
+        <v>4175.9</v>
       </c>
       <c r="O31" t="n">
-        <v>12684.24</v>
+        <v>2783.93</v>
       </c>
       <c r="P31" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R31" t="n">
-        <v>101.66</v>
+        <v>31.3</v>
       </c>
       <c r="S31" t="n">
-        <v>311.93</v>
+        <v>222.33</v>
       </c>
       <c r="T31" t="n">
-        <v>12.05</v>
+        <v>11.88</v>
       </c>
       <c r="U31" t="n">
-        <v>187.16</v>
+        <v>133.4</v>
       </c>
       <c r="V31" t="n">
-        <v>124.77</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="W31" t="n">
-        <v>7.32</v>
+        <v>17.38</v>
       </c>
       <c r="X31" t="n">
-        <v>25.88</v>
+        <v>20.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.66</v>
+        <v>31.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.491</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-13 15:43:57</t>
+          <t>2026-01-13 14:32:09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5729,7 +5829,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.583</t>
+          <t>Mouse session - Score: 0.562</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5757,7 +5857,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15:43:57</t>
+          <t>14:32:09</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5766,58 +5866,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>19415</v>
+        <v>22893</v>
       </c>
       <c r="L32" t="n">
-        <v>19415</v>
+        <v>22893</v>
       </c>
       <c r="M32" t="n">
-        <v>6102.96</v>
+        <v>32661.92</v>
       </c>
       <c r="N32" t="n">
-        <v>3661.78</v>
+        <v>19597.15</v>
       </c>
       <c r="O32" t="n">
-        <v>2441.19</v>
+        <v>13064.77</v>
       </c>
       <c r="P32" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Q32" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>32.51</v>
+        <v>91.94</v>
       </c>
       <c r="S32" t="n">
-        <v>187.74</v>
+        <v>355.25</v>
       </c>
       <c r="T32" t="n">
-        <v>37.87</v>
+        <v>6.96</v>
       </c>
       <c r="U32" t="n">
-        <v>112.64</v>
+        <v>213.15</v>
       </c>
       <c r="V32" t="n">
-        <v>75.09999999999999</v>
+        <v>142.1</v>
       </c>
       <c r="W32" t="n">
-        <v>29.08</v>
+        <v>6.34</v>
       </c>
       <c r="X32" t="n">
-        <v>18.24</v>
+        <v>23.94</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.51</v>
+        <v>91.94</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.583</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-13 17:41:31</t>
+          <t>2026-01-13 13:25:26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5827,7 +5927,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.462</t>
+          <t>Mouse session - Score: 0.646</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5855,7 +5955,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17:41:31</t>
+          <t>13:25:26</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5864,58 +5964,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>24631</v>
+        <v>13040</v>
       </c>
       <c r="L33" t="n">
-        <v>24631</v>
+        <v>13040</v>
       </c>
       <c r="M33" t="n">
-        <v>31897.67</v>
+        <v>34475.21</v>
       </c>
       <c r="N33" t="n">
-        <v>19138.6</v>
+        <v>20685.12</v>
       </c>
       <c r="O33" t="n">
-        <v>12759.07</v>
+        <v>13790.08</v>
       </c>
       <c r="P33" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="R33" t="n">
-        <v>40.26</v>
+        <v>175.96</v>
       </c>
       <c r="S33" t="n">
-        <v>792.25</v>
+        <v>195.93</v>
       </c>
       <c r="T33" t="n">
-        <v>43.75</v>
+        <v>42.12</v>
       </c>
       <c r="U33" t="n">
-        <v>475.35</v>
+        <v>117.56</v>
       </c>
       <c r="V33" t="n">
-        <v>316.9</v>
+        <v>78.37</v>
       </c>
       <c r="W33" t="n">
-        <v>5.17</v>
+        <v>5.49</v>
       </c>
       <c r="X33" t="n">
-        <v>21.96</v>
+        <v>27.06</v>
       </c>
       <c r="Y33" t="n">
-        <v>40.26</v>
+        <v>175.96</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.462</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-13 17:00:16</t>
+          <t>2026-01-13 11:24:40</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5925,7 +6025,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.493</t>
+          <t>Mouse session - Score: 0.514</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5953,7 +6053,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>17:00:16</t>
+          <t>11:24:40</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5962,58 +6062,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>23165</v>
+        <v>11618</v>
       </c>
       <c r="L34" t="n">
-        <v>23165</v>
+        <v>11618</v>
       </c>
       <c r="M34" t="n">
-        <v>27169.67</v>
+        <v>19702.92</v>
       </c>
       <c r="N34" t="n">
-        <v>16301.8</v>
+        <v>11821.75</v>
       </c>
       <c r="O34" t="n">
-        <v>10867.87</v>
+        <v>7881.17</v>
       </c>
       <c r="P34" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R34" t="n">
-        <v>83.37</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="S34" t="n">
-        <v>325.9</v>
+        <v>299.83</v>
       </c>
       <c r="T34" t="n">
-        <v>46.53</v>
+        <v>16.15</v>
       </c>
       <c r="U34" t="n">
-        <v>195.54</v>
+        <v>179.9</v>
       </c>
       <c r="V34" t="n">
-        <v>130.36</v>
+        <v>119.93</v>
       </c>
       <c r="W34" t="n">
-        <v>14.86</v>
+        <v>4.79</v>
       </c>
       <c r="X34" t="n">
-        <v>26.21</v>
+        <v>19.47</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.37</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.493</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-14 09:44:49</t>
+          <t>2026-01-14 11:06:56</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6023,7 +6123,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.611</t>
+          <t>Mouse session - Score: 0.531</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6051,7 +6151,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>09:44:49</t>
+          <t>11:06:56</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6060,58 +6160,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>12519</v>
+        <v>29500</v>
       </c>
       <c r="L35" t="n">
-        <v>12519</v>
+        <v>29500</v>
       </c>
       <c r="M35" t="n">
-        <v>35942.59</v>
+        <v>17915.97</v>
       </c>
       <c r="N35" t="n">
-        <v>21565.55</v>
+        <v>10749.58</v>
       </c>
       <c r="O35" t="n">
-        <v>14377.04</v>
+        <v>7166.39</v>
       </c>
       <c r="P35" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>30</v>
+      </c>
+      <c r="R35" t="n">
+        <v>161.29</v>
+      </c>
+      <c r="S35" t="n">
+        <v>111.08</v>
+      </c>
+      <c r="T35" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="V35" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="W35" t="n">
         <v>9</v>
       </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>73.83</v>
-      </c>
-      <c r="S35" t="n">
-        <v>486.84</v>
-      </c>
-      <c r="T35" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="U35" t="n">
-        <v>292.1</v>
-      </c>
-      <c r="V35" t="n">
-        <v>194.74</v>
-      </c>
-      <c r="W35" t="n">
-        <v>3.6</v>
-      </c>
       <c r="X35" t="n">
-        <v>15.73</v>
+        <v>20.47</v>
       </c>
       <c r="Y35" t="n">
-        <v>73.83</v>
+        <v>161.29</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.611</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-14 16:35:19</t>
+          <t>2026-01-14 12:31:58</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6121,7 +6221,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.490</t>
+          <t>Mouse session - Score: 0.819</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6136,11 +6236,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -6149,7 +6249,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>16:35:19</t>
+          <t>12:31:58</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6158,58 +6258,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>14109</v>
+        <v>27695</v>
       </c>
       <c r="L36" t="n">
-        <v>14109</v>
+        <v>27695</v>
       </c>
       <c r="M36" t="n">
-        <v>37527.98</v>
+        <v>20603.57</v>
       </c>
       <c r="N36" t="n">
-        <v>22516.79</v>
+        <v>12362.14</v>
       </c>
       <c r="O36" t="n">
-        <v>15011.19</v>
+        <v>8241.43</v>
       </c>
       <c r="P36" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Q36" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="R36" t="n">
-        <v>63.48</v>
+        <v>89.88</v>
       </c>
       <c r="S36" t="n">
-        <v>591.1799999999999</v>
+        <v>229.25</v>
       </c>
       <c r="T36" t="n">
-        <v>23.74</v>
+        <v>47.55</v>
       </c>
       <c r="U36" t="n">
-        <v>354.71</v>
+        <v>137.55</v>
       </c>
       <c r="V36" t="n">
-        <v>236.47</v>
+        <v>91.7</v>
       </c>
       <c r="W36" t="n">
-        <v>5.93</v>
+        <v>20.15</v>
       </c>
       <c r="X36" t="n">
-        <v>26.85</v>
+        <v>15.61</v>
       </c>
       <c r="Y36" t="n">
-        <v>63.48</v>
+        <v>89.88</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.49</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-14 12:23:18</t>
+          <t>2026-01-14 12:44:13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6219,7 +6319,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.901</t>
+          <t>Mouse session - Score: 0.549</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6234,11 +6334,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -6247,7 +6347,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>12:23:18</t>
+          <t>12:44:13</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6256,58 +6356,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>16019</v>
+        <v>12660</v>
       </c>
       <c r="L37" t="n">
-        <v>16019</v>
+        <v>12660</v>
       </c>
       <c r="M37" t="n">
-        <v>31990.4</v>
+        <v>26597.65</v>
       </c>
       <c r="N37" t="n">
-        <v>19194.24</v>
+        <v>15958.59</v>
       </c>
       <c r="O37" t="n">
-        <v>12796.16</v>
+        <v>10639.06</v>
       </c>
       <c r="P37" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R37" t="n">
-        <v>46.85</v>
+        <v>142.36</v>
       </c>
       <c r="S37" t="n">
-        <v>682.8200000000001</v>
+        <v>186.83</v>
       </c>
       <c r="T37" t="n">
-        <v>29.07</v>
+        <v>47.98</v>
       </c>
       <c r="U37" t="n">
-        <v>409.69</v>
+        <v>112.1</v>
       </c>
       <c r="V37" t="n">
-        <v>273.13</v>
+        <v>74.73</v>
       </c>
       <c r="W37" t="n">
-        <v>9.81</v>
+        <v>26.63</v>
       </c>
       <c r="X37" t="n">
-        <v>4.05</v>
+        <v>21.69</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.85</v>
+        <v>142.36</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.901</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-15 10:02:48</t>
+          <t>2026-01-15 14:50:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6317,7 +6417,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.484</t>
+          <t>Mouse session - Score: 0.498</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6345,7 +6445,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10:02:48</t>
+          <t>14:50:36</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6354,58 +6454,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>19996</v>
+        <v>9949</v>
       </c>
       <c r="L38" t="n">
-        <v>19996</v>
+        <v>9949</v>
       </c>
       <c r="M38" t="n">
-        <v>22623.31</v>
+        <v>32537.41</v>
       </c>
       <c r="N38" t="n">
-        <v>13573.99</v>
+        <v>19522.45</v>
       </c>
       <c r="O38" t="n">
-        <v>9049.33</v>
+        <v>13014.96</v>
       </c>
       <c r="P38" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="Q38" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R38" t="n">
-        <v>46.21</v>
+        <v>87.67</v>
       </c>
       <c r="S38" t="n">
-        <v>489.62</v>
+        <v>371.13</v>
       </c>
       <c r="T38" t="n">
-        <v>43.3</v>
+        <v>34.46</v>
       </c>
       <c r="U38" t="n">
-        <v>293.77</v>
+        <v>222.68</v>
       </c>
       <c r="V38" t="n">
-        <v>195.85</v>
+        <v>148.45</v>
       </c>
       <c r="W38" t="n">
-        <v>9.25</v>
+        <v>14.39</v>
       </c>
       <c r="X38" t="n">
-        <v>2.66</v>
+        <v>16.24</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.21</v>
+        <v>87.67</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.484</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-15 16:30:01</t>
+          <t>2026-01-15 10:37:52</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6415,7 +6515,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.490</t>
+          <t>Mouse session - Score: 0.541</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6443,7 +6543,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>16:30:01</t>
+          <t>10:37:52</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6452,58 +6552,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>26489</v>
+        <v>27350</v>
       </c>
       <c r="L39" t="n">
-        <v>26489</v>
+        <v>27350</v>
       </c>
       <c r="M39" t="n">
-        <v>37842.73</v>
+        <v>8909.559999999999</v>
       </c>
       <c r="N39" t="n">
-        <v>22705.64</v>
+        <v>5345.74</v>
       </c>
       <c r="O39" t="n">
-        <v>15137.09</v>
+        <v>3563.82</v>
       </c>
       <c r="P39" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
       </c>
       <c r="R39" t="n">
-        <v>163.38</v>
+        <v>169.99</v>
       </c>
       <c r="S39" t="n">
-        <v>231.62</v>
+        <v>52.41</v>
       </c>
       <c r="T39" t="n">
-        <v>24.45</v>
+        <v>49.94</v>
       </c>
       <c r="U39" t="n">
-        <v>138.97</v>
+        <v>31.45</v>
       </c>
       <c r="V39" t="n">
-        <v>92.65000000000001</v>
+        <v>20.96</v>
       </c>
       <c r="W39" t="n">
-        <v>24.6</v>
+        <v>18.26</v>
       </c>
       <c r="X39" t="n">
-        <v>17.2</v>
+        <v>20.22</v>
       </c>
       <c r="Y39" t="n">
-        <v>163.38</v>
+        <v>169.99</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.49</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-15 14:40:26</t>
+          <t>2026-01-15 12:01:10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6513,7 +6613,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.931</t>
+          <t>Mouse session - Score: 0.580</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6528,11 +6628,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -6541,7 +6641,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14:40:26</t>
+          <t>12:01:10</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6550,58 +6650,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>12819</v>
+        <v>18706</v>
       </c>
       <c r="L40" t="n">
-        <v>12819</v>
+        <v>18706</v>
       </c>
       <c r="M40" t="n">
-        <v>29670.59</v>
+        <v>12870.27</v>
       </c>
       <c r="N40" t="n">
-        <v>17802.35</v>
+        <v>7722.16</v>
       </c>
       <c r="O40" t="n">
-        <v>11868.23</v>
+        <v>5148.11</v>
       </c>
       <c r="P40" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q40" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R40" t="n">
-        <v>97.03</v>
+        <v>123.58</v>
       </c>
       <c r="S40" t="n">
-        <v>305.79</v>
+        <v>104.14</v>
       </c>
       <c r="T40" t="n">
-        <v>34.12</v>
+        <v>25.73</v>
       </c>
       <c r="U40" t="n">
-        <v>183.47</v>
+        <v>62.49</v>
       </c>
       <c r="V40" t="n">
-        <v>122.32</v>
+        <v>41.66</v>
       </c>
       <c r="W40" t="n">
-        <v>18.11</v>
+        <v>22.37</v>
       </c>
       <c r="X40" t="n">
-        <v>21.75</v>
+        <v>10.6</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.03</v>
+        <v>123.58</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.931</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-16 15:49:18</t>
+          <t>2026-01-16 16:05:14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6611,7 +6711,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.466</t>
+          <t>Mouse session - Score: 0.536</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6639,7 +6739,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>15:49:18</t>
+          <t>16:05:14</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6648,58 +6748,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>21671</v>
+        <v>13610</v>
       </c>
       <c r="L41" t="n">
-        <v>21671</v>
+        <v>13610</v>
       </c>
       <c r="M41" t="n">
-        <v>31173.98</v>
+        <v>35327.82</v>
       </c>
       <c r="N41" t="n">
-        <v>18704.39</v>
+        <v>21196.69</v>
       </c>
       <c r="O41" t="n">
-        <v>12469.59</v>
+        <v>14131.13</v>
       </c>
       <c r="P41" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="R41" t="n">
-        <v>79.04000000000001</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="S41" t="n">
-        <v>394.4</v>
+        <v>379.01</v>
       </c>
       <c r="T41" t="n">
-        <v>45.38</v>
+        <v>45.04</v>
       </c>
       <c r="U41" t="n">
-        <v>236.64</v>
+        <v>227.4</v>
       </c>
       <c r="V41" t="n">
-        <v>157.76</v>
+        <v>151.6</v>
       </c>
       <c r="W41" t="n">
-        <v>14.49</v>
+        <v>2.3</v>
       </c>
       <c r="X41" t="n">
-        <v>10.91</v>
+        <v>21.76</v>
       </c>
       <c r="Y41" t="n">
-        <v>79.04000000000001</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.466</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-16 16:47:22</t>
+          <t>2026-01-16 12:12:14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6709,7 +6809,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.554</t>
+          <t>Mouse session - Score: 0.648</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6737,7 +6837,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16:47:22</t>
+          <t>12:12:14</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6746,58 +6846,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>12562</v>
+        <v>14728</v>
       </c>
       <c r="L42" t="n">
-        <v>12562</v>
+        <v>14728</v>
       </c>
       <c r="M42" t="n">
-        <v>30181.29</v>
+        <v>37193.71</v>
       </c>
       <c r="N42" t="n">
-        <v>18108.77</v>
+        <v>22316.23</v>
       </c>
       <c r="O42" t="n">
-        <v>12072.52</v>
+        <v>14877.48</v>
       </c>
       <c r="P42" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="Q42" t="n">
         <v>28</v>
       </c>
       <c r="R42" t="n">
-        <v>167.72</v>
+        <v>101.57</v>
       </c>
       <c r="S42" t="n">
-        <v>179.96</v>
+        <v>366.19</v>
       </c>
       <c r="T42" t="n">
-        <v>19.75</v>
+        <v>6.67</v>
       </c>
       <c r="U42" t="n">
-        <v>107.97</v>
+        <v>219.71</v>
       </c>
       <c r="V42" t="n">
-        <v>71.98</v>
+        <v>146.47</v>
       </c>
       <c r="W42" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="X42" t="n">
         <v>14.36</v>
       </c>
-      <c r="X42" t="n">
-        <v>26.92</v>
-      </c>
       <c r="Y42" t="n">
-        <v>167.72</v>
+        <v>101.57</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.554</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-16 10:11:08</t>
+          <t>2026-01-16 16:05:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6807,7 +6907,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.574</t>
+          <t>Mouse session - Score: 0.880</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6822,11 +6922,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -6835,7 +6935,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10:11:08</t>
+          <t>16:05:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6844,58 +6944,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>6094</v>
+        <v>15836</v>
       </c>
       <c r="L43" t="n">
-        <v>6094</v>
+        <v>15836</v>
       </c>
       <c r="M43" t="n">
-        <v>29775.9</v>
+        <v>38259.05</v>
       </c>
       <c r="N43" t="n">
-        <v>17865.54</v>
+        <v>22955.43</v>
       </c>
       <c r="O43" t="n">
-        <v>11910.36</v>
+        <v>15303.62</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q43" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>134.58</v>
+        <v>146.69</v>
       </c>
       <c r="S43" t="n">
-        <v>221.25</v>
+        <v>260.81</v>
       </c>
       <c r="T43" t="n">
-        <v>11.47</v>
+        <v>41.39</v>
       </c>
       <c r="U43" t="n">
-        <v>132.75</v>
+        <v>156.49</v>
       </c>
       <c r="V43" t="n">
-        <v>88.5</v>
+        <v>104.32</v>
       </c>
       <c r="W43" t="n">
-        <v>10.4</v>
+        <v>23.43</v>
       </c>
       <c r="X43" t="n">
-        <v>12.73</v>
+        <v>8.69</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.58</v>
+        <v>146.69</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.574</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-19 13:49:04</t>
+          <t>2026-01-19 10:29:10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6905,7 +7005,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.836</t>
+          <t>Mouse session - Score: 0.469</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6920,11 +7020,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -6933,7 +7033,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>13:49:04</t>
+          <t>10:29:10</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6942,58 +7042,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>29314</v>
+        <v>21534</v>
       </c>
       <c r="L44" t="n">
-        <v>29314</v>
+        <v>21534</v>
       </c>
       <c r="M44" t="n">
-        <v>13136.16</v>
+        <v>17290.21</v>
       </c>
       <c r="N44" t="n">
-        <v>7881.7</v>
+        <v>10374.13</v>
       </c>
       <c r="O44" t="n">
-        <v>5254.46</v>
+        <v>6916.08</v>
       </c>
       <c r="P44" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Q44" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="R44" t="n">
-        <v>141.74</v>
+        <v>61.05</v>
       </c>
       <c r="S44" t="n">
-        <v>92.68000000000001</v>
+        <v>283.23</v>
       </c>
       <c r="T44" t="n">
-        <v>33.02</v>
+        <v>17.59</v>
       </c>
       <c r="U44" t="n">
-        <v>55.61</v>
+        <v>169.94</v>
       </c>
       <c r="V44" t="n">
-        <v>37.07</v>
+        <v>113.29</v>
       </c>
       <c r="W44" t="n">
-        <v>16.76</v>
+        <v>12.18</v>
       </c>
       <c r="X44" t="n">
-        <v>26.88</v>
+        <v>9.26</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.74</v>
+        <v>61.05</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.836</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-19 12:49:41</t>
+          <t>2026-01-19 15:26:18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -7003,7 +7103,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.910</t>
+          <t>Mouse session - Score: 0.553</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7018,11 +7118,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -7031,7 +7131,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12:49:41</t>
+          <t>15:26:18</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -7040,58 +7140,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>13000</v>
+        <v>16531</v>
       </c>
       <c r="L45" t="n">
-        <v>13000</v>
+        <v>16531</v>
       </c>
       <c r="M45" t="n">
-        <v>10926.22</v>
+        <v>29138.64</v>
       </c>
       <c r="N45" t="n">
-        <v>6555.73</v>
+        <v>17483.19</v>
       </c>
       <c r="O45" t="n">
-        <v>4370.49</v>
+        <v>11655.46</v>
       </c>
       <c r="P45" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q45" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="R45" t="n">
-        <v>77.2</v>
+        <v>124.87</v>
       </c>
       <c r="S45" t="n">
-        <v>141.54</v>
+        <v>233.35</v>
       </c>
       <c r="T45" t="n">
-        <v>43.62</v>
+        <v>33.42</v>
       </c>
       <c r="U45" t="n">
-        <v>84.92</v>
+        <v>140.01</v>
       </c>
       <c r="V45" t="n">
-        <v>56.61</v>
+        <v>93.34</v>
       </c>
       <c r="W45" t="n">
-        <v>29.56</v>
+        <v>22.7</v>
       </c>
       <c r="X45" t="n">
-        <v>7.12</v>
+        <v>16.35</v>
       </c>
       <c r="Y45" t="n">
-        <v>77.2</v>
+        <v>124.87</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.91</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-19 09:27:21</t>
+          <t>2026-01-19 11:52:05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -7101,7 +7201,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.555</t>
+          <t>Mouse session - Score: 0.537</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7129,7 +7229,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>09:27:21</t>
+          <t>11:52:05</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7138,52 +7238,52 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>8839</v>
+        <v>11756</v>
       </c>
       <c r="L46" t="n">
-        <v>8839</v>
+        <v>11756</v>
       </c>
       <c r="M46" t="n">
-        <v>34249.1</v>
+        <v>34805.99</v>
       </c>
       <c r="N46" t="n">
-        <v>20549.46</v>
+        <v>20883.59</v>
       </c>
       <c r="O46" t="n">
-        <v>13699.64</v>
+        <v>13922.4</v>
       </c>
       <c r="P46" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="Q46" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R46" t="n">
-        <v>143.26</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="S46" t="n">
-        <v>239.06</v>
+        <v>401.69</v>
       </c>
       <c r="T46" t="n">
-        <v>47.78</v>
+        <v>35.03</v>
       </c>
       <c r="U46" t="n">
-        <v>143.44</v>
+        <v>241.01</v>
       </c>
       <c r="V46" t="n">
-        <v>95.63</v>
+        <v>160.68</v>
       </c>
       <c r="W46" t="n">
-        <v>8.890000000000001</v>
+        <v>20.99</v>
       </c>
       <c r="X46" t="n">
-        <v>23.4</v>
+        <v>27.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>143.26</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.555</v>
+        <v>0.537</v>
       </c>
     </row>
   </sheetData>
@@ -7197,7 +7297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7260,20 +7360,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-01 14:45:00</t>
+          <t>2026-01-01 09:21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-01-01 20:13:05</t>
+          <t>2026-01-01 13:26:31</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19685</v>
+        <v>14731</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:28:00</t>
+          <t>04:05:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7300,20 +7400,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-02 12:55:00</t>
+          <t>2026-01-02 15:49:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01-02 14:53:53</t>
+          <t>2026-01-02 18:08:17</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7133</v>
+        <v>8357</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01:58:00</t>
+          <t>02:19:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -7340,20 +7440,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-02 10:32:00</t>
+          <t>2026-01-02 11:39:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-01-02 12:26:46</t>
+          <t>2026-01-02 14:38:02</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6886</v>
+        <v>10742</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01:54:00</t>
+          <t>02:59:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7380,20 +7480,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-05 11:26:00</t>
+          <t>2026-01-05 11:10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-01-05 16:49:05</t>
+          <t>2026-01-05 12:56:14</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19385</v>
+        <v>6374</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>05:23:00</t>
+          <t>01:46:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7410,7 +7510,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20260106_00</t>
+          <t>BROWSER_20260105_01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7420,25 +7520,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-06 09:01:00</t>
+          <t>2026-01-05 09:04:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-01-06 10:38:29</t>
+          <t>2026-01-05 11:42:21</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5849</v>
+        <v>9501</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>01:37:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7450,7 +7550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20260106_01</t>
+          <t>BROWSER_20260106_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7460,20 +7560,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-01-06 13:31:00</t>
+          <t>2026-01-06 14:20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-01-06 16:22:11</t>
+          <t>2026-01-06 15:52:29</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10271</v>
+        <v>5549</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02:51:00</t>
+          <t>01:32:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7490,7 +7590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20260107_00</t>
+          <t>BROWSER_20260106_01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7500,25 +7600,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-01-07 12:02:00</t>
+          <t>2026-01-06 09:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-01-07 15:41:02</t>
+          <t>2026-01-06 11:29:21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13142</v>
+        <v>8961</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>03:39:00</t>
+          <t>02:29:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7530,7 +7630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260108_00</t>
+          <t>BROWSER_20260107_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7540,25 +7640,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-01-08 12:34:00</t>
+          <t>2026-01-07 10:06:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-01-08 16:36:51</t>
+          <t>2026-01-07 12:47:56</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14571</v>
+        <v>9716</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>04:02:00</t>
+          <t>02:41:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7570,7 +7670,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260109_00</t>
+          <t>BROWSER_20260107_01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7580,25 +7680,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-01-09 14:11:00</t>
+          <t>2026-01-07 13:46:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-01-09 18:21:39</t>
+          <t>2026-01-07 15:42:01</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15039</v>
+        <v>6961</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>04:10:00</t>
+          <t>01:56:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7610,7 +7710,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260112_00</t>
+          <t>BROWSER_20260108_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7620,25 +7720,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-01-12 14:25:00</t>
+          <t>2026-01-08 12:57:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-01-12 19:36:07</t>
+          <t>2026-01-08 18:35:34</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18667</v>
+        <v>20314</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>05:11:00</t>
+          <t>05:38:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7650,7 +7750,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260113_00</t>
+          <t>BROWSER_20260109_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7660,25 +7760,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-01-13 12:57:00</t>
+          <t>2026-01-09 12:56:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-01-13 17:00:34</t>
+          <t>2026-01-09 16:14:59</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14614</v>
+        <v>11939</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>04:03:00</t>
+          <t>03:18:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7690,7 +7790,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260114_00</t>
+          <t>BROWSER_20260112_00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7700,25 +7800,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-01-14 12:42:00</t>
+          <t>2026-01-12 12:23:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-01-14 17:34:09</t>
+          <t>2026-01-12 15:16:26</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17529</v>
+        <v>10406</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>04:52:00</t>
+          <t>02:53:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7730,7 +7830,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260115_00</t>
+          <t>BROWSER_20260112_01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7740,25 +7840,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-01-15 12:47:00</t>
+          <t>2026-01-12 08:12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-01-15 18:10:02</t>
+          <t>2026-01-12 10:10:11</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19382</v>
+        <v>7091</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>05:23:00</t>
+          <t>01:58:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7770,7 +7870,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260116_00</t>
+          <t>BROWSER_20260113_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7780,25 +7880,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-01-16 10:06:00</t>
+          <t>2026-01-13 08:16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-01-16 12:18:57</t>
+          <t>2026-01-13 11:54:14</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7977</v>
+        <v>13094</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02:12:00</t>
+          <t>03:38:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7810,7 +7910,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260116_01</t>
+          <t>BROWSER_20260114_00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7820,25 +7920,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-01-16 13:30:00</t>
+          <t>2026-01-14 09:29:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-01-16 15:25:46</t>
+          <t>2026-01-14 11:15:27</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6946</v>
+        <v>6387</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01:55:00</t>
+          <t>01:46:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7850,7 +7950,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260119_00</t>
+          <t>BROWSER_20260114_01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7860,25 +7960,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-01-19 15:58:00</t>
+          <t>2026-01-14 14:27:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-01-19 21:22:21</t>
+          <t>2026-01-14 16:40:27</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19461</v>
+        <v>8007</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05:24:00</t>
+          <t>02:13:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7890,7 +7990,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260120_00</t>
+          <t>BROWSER_20260115_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7900,25 +8000,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-01-20 15:11:00</t>
+          <t>2026-01-15 13:49:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-01-20 21:08:46</t>
+          <t>2026-01-15 16:20:58</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21466</v>
+        <v>9118</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05:57:00</t>
+          <t>02:31:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7930,7 +8030,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260121_00</t>
+          <t>BROWSER_20260115_01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -7940,25 +8040,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-01-21 15:24:00</t>
+          <t>2026-01-15 14:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-01-21 17:19:05</t>
+          <t>2026-01-15 16:59:00</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6905</v>
+        <v>10740</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>01:55:00</t>
+          <t>02:59:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7970,7 +8070,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260121_01</t>
+          <t>BROWSER_20260116_00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7980,28 +8080,188 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-01-21 11:20:00</t>
+          <t>2026-01-16 14:02:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-01-21 13:42:02</t>
+          <t>2026-01-16 17:14:01</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8522</v>
+        <v>11521</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02:22:00</t>
+          <t>03:12:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BROWSER_20260119_00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-01-19 14:29:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026-01-19 17:16:13</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>10033</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>02:47:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BROWSER_20260119_01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-19 14:24:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2026-01-19 16:30:39</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>7599</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>02:06:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BROWSER_20260120_00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-01-20 11:44:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-01-20 15:45:22</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>14482</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>04:01:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BROWSER_20260121_00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-01-21 11:25:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-01-21 14:27:33</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>10953</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>03:02:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
